--- a/Word Dateien/Function Points.xlsx
+++ b/Word Dateien/Function Points.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="5" r:id="rId2"/>
     <sheet name="Manage Calendars" sheetId="7" r:id="rId3"/>
     <sheet name="Logout" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="Diagram" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>Number of User Input</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Time Spent (h)</t>
+  </si>
+  <si>
+    <t>Time Spent</t>
   </si>
 </sst>
 </file>
@@ -122,15 +125,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -348,36 +357,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,11 +434,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,43 +449,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,7 +593,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Diagram!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -534,25 +628,25 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Diagram!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>80.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>18.239999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Diagram!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -578,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83723008"/>
-        <c:axId val="83716736"/>
+        <c:axId val="189966208"/>
+        <c:axId val="189984768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83723008"/>
+        <c:axId val="189966208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,12 +705,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83716736"/>
+        <c:crossAx val="189984768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83716736"/>
+        <c:axId val="189984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +744,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83723008"/>
+        <c:crossAx val="189966208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -991,9 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1001,536 +1093,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <f>Login!B3</f>
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="str">
-        <f>Login!C3</f>
-        <v>Simple</v>
-      </c>
-      <c r="D3" s="1">
-        <f>'Manage Calendars'!B3</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>'Manage Calendars'!C3</f>
-        <v>Simple</v>
-      </c>
-      <c r="F3" s="10">
-        <f>Logout!B3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>Logout!C3</f>
-        <v>Simple</v>
+      <c r="C3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="49">
+        <v>5</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <f>Login!B4</f>
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="str">
-        <f>Login!C4</f>
-        <v>Simple</v>
-      </c>
-      <c r="D4" s="4">
-        <f>'Manage Calendars'!B4</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f>'Manage Calendars'!C4</f>
-        <v>Simple</v>
-      </c>
-      <c r="F4" s="11">
-        <f>Logout!B4</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>Logout!C4</f>
-        <v>Simple</v>
+      <c r="C4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="50">
+        <v>5</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <f>Login!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <f>Login!C5</f>
-        <v>Simple</v>
-      </c>
-      <c r="D5" s="4">
-        <f>'Manage Calendars'!B5</f>
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="50">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f>'Manage Calendars'!C5</f>
-        <v>Simple</v>
-      </c>
-      <c r="F5" s="11">
-        <f>Logout!B5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>Logout!C5</f>
-        <v>Simple</v>
+      <c r="E5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <f>Login!B6</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f>Login!C6</f>
-        <v>Simple</v>
-      </c>
-      <c r="D6" s="4">
-        <f>'Manage Calendars'!B6</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>'Manage Calendars'!C6</f>
-        <v>Simple</v>
-      </c>
-      <c r="F6" s="11">
-        <f>Logout!B6</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>Logout!C6</f>
-        <v>Simple</v>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="50">
+        <v>5</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
-        <f>Login!B7</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f>Login!C7</f>
-        <v>Simple</v>
-      </c>
-      <c r="D7" s="7">
-        <f>'Manage Calendars'!B7</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f>'Manage Calendars'!C7</f>
-        <v>Simple</v>
-      </c>
-      <c r="F7" s="12">
-        <f>Logout!B7</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f>Logout!C7</f>
-        <v>Simple</v>
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="51">
+        <v>1</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37">
-        <f>Login!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37">
-        <f>'Manage Calendars'!B9</f>
+      <c r="B9" s="36">
+        <v>4</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="16">
+        <f>B9</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16">
+        <f>D9</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38">
         <v>3</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37">
-        <f>Logout!B9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="26">
-        <f>Login!B10</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26">
-        <f>'Manage Calendars'!B10</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26">
-        <f>Logout!B10</f>
+      <c r="C10" s="39"/>
+      <c r="D10" s="18">
+        <f t="shared" ref="D10:D22" si="0">B10</f>
         <v>3</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18">
+        <f t="shared" ref="F10:F22" si="1">D10</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
-        <f>Login!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26">
-        <f>'Manage Calendars'!B11</f>
+      <c r="B11" s="38">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38">
+        <v>5</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38">
+        <v>5</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38">
+        <v>3</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26">
-        <f>Logout!B11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="26">
-        <f>Login!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26">
-        <f>'Manage Calendars'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26">
-        <f>Logout!B12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26">
-        <f>Login!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26">
-        <f>'Manage Calendars'!B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26">
-        <f>Logout!B13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="26">
-        <f>Login!B14</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26">
-        <f>'Manage Calendars'!B14</f>
-        <v>5</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26">
-        <f>Logout!B14</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38">
+        <v>5</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38">
+        <v>2</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="40">
+        <v>0</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="42">
+        <v>24.96</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42">
+        <v>80.64</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="42">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="46">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
-        <f>Login!B15</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26">
-        <f>'Manage Calendars'!B15</f>
-        <v>5</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26">
-        <f>Logout!B15</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="26">
-        <f>Login!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26">
-        <f>'Manage Calendars'!B16</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26">
-        <f>Logout!B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="26">
-        <f>Login!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26">
-        <f>'Manage Calendars'!B17</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="26">
-        <f>Logout!B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="26">
-        <f>Login!B18</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26">
-        <f>'Manage Calendars'!B18</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26">
-        <f>Logout!B18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="26">
-        <f>Login!B19</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26">
-        <f>'Manage Calendars'!B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26">
-        <f>Logout!B19</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="26">
-        <f>Login!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26">
-        <f>'Manage Calendars'!B20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26">
-        <f>Logout!B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="26">
-        <f>Login!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26">
-        <f>'Manage Calendars'!B21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="26">
-        <f>Logout!B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="29">
-        <f>Login!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="29">
-        <f>'Manage Calendars'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29">
-        <f>Logout!B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="32">
-        <f>Login!B23</f>
-        <v>20</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="32">
-        <f>'Manage Calendars'!B23</f>
-        <v>74</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32">
-        <f>Logout!B23</f>
-        <v>14</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="13"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="46">
+        <v>29</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="46">
+        <v>9</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
+  <mergeCells count="57">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -1540,22 +1579,46 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1566,9 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1576,262 +1637,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="23" t="str">
+        <f>General!B1</f>
+        <v>Login</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>General!B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="11" t="str">
+        <f>General!C3</f>
+        <v>Simple</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>General!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="12" t="str">
+        <f>General!C4</f>
+        <v>Simple</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="B5" s="2">
+        <f>General!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="str">
+        <f>General!C5</f>
+        <v>Simple</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="B6" s="2">
+        <f>General!B6</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f>General!C6</f>
+        <v>Simple</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="B7" s="3">
+        <f>General!B7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>General!C7</f>
+        <v>Simple</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37">
-        <v>0</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="16">
+        <f>General!B9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="26">
-        <v>4</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="18">
+        <f>General!B10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18">
+        <f>General!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="18">
+        <f>General!B12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="18">
+        <f>General!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
-        <v>5</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="18">
+        <f>General!B14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
-        <v>1</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="18">
+        <f>General!B15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="18">
+        <f>General!B16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="18">
+        <f>General!B17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="18">
+        <f>General!B18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="18">
+        <f>General!B19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="18">
+        <f>General!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="18">
+        <f>General!B21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="20">
+        <f>General!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="32">
-        <v>20</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="22">
+        <f>General!B23</f>
+        <v>24.96</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="13"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1842,247 +1929,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="13"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="36"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="23" t="str">
+        <f>General!D1</f>
+        <v>Manage Calendars</v>
+      </c>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>General!D3</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>General!E3</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>General!D4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="str">
+        <f>General!E4</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="2">
+        <f>General!D5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
+      <c r="C5" s="12" t="str">
+        <f>General!E5</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+      <c r="B6" s="2">
+        <f>General!D6</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f>General!E6</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+      <c r="B7" s="3">
+        <f>General!D7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>General!E7</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="16">
+        <f>General!D9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
+        <f>General!D10</f>
         <v>3</v>
       </c>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="26">
-        <v>4</v>
-      </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="18">
+        <f>General!D11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <f>General!D12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
+        <f>General!D13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18">
+        <f>General!D14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18">
+        <f>General!D15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18">
+        <f>General!D16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18">
+        <f>General!D17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <f>General!D18</f>
         <v>2</v>
       </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="26">
-        <v>5</v>
-      </c>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="26">
-        <v>5</v>
-      </c>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18">
+        <f>General!D19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
+        <f>General!D20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18">
+        <f>General!D21</f>
         <v>2</v>
       </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="26">
-        <v>1</v>
-      </c>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31"/>
+      <c r="B22" s="20">
+        <f>General!D22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="32">
-        <v>74</v>
-      </c>
-      <c r="C23" s="34"/>
+      <c r="B23" s="22">
+        <f>General!D23</f>
+        <v>80.64</v>
+      </c>
+      <c r="C23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2093,9 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2103,254 +2212,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="36"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="23" t="str">
+        <f>General!F1</f>
+        <v>Logout</v>
+      </c>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>General!F3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>General!G3</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>General!F4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="str">
+        <f>General!G4</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
+      <c r="B5" s="2">
+        <f>General!F5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="str">
+        <f>General!G5</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+      <c r="B6" s="2">
+        <f>General!F6</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f>General!G6</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+      <c r="B7" s="3">
+        <f>General!F7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>General!G7</f>
+        <v>Simple</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37">
-        <v>0</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="16">
+        <f>General!F9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="18">
+        <f>General!F10</f>
         <v>3</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18">
+        <f>General!F11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="18">
+        <f>General!F12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="18">
+        <f>General!F13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
-        <v>5</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="18">
+        <f>General!F14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
-        <v>1</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="18">
+        <f>General!F15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="18">
+        <f>General!F16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="18">
+        <f>General!F17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="18">
+        <f>General!F18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="18">
+        <f>General!F19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="18">
+        <f>General!F20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="18">
+        <f>General!F21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="20">
+        <f>General!F22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="32">
-        <v>14</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="22">
+        <f>General!F23</f>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="13"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2361,10 +2496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2378,35 +2514,44 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2" t="str">
+        <f>General!B1</f>
+        <v>Login</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <f>General!B23</f>
+        <v>24.96</v>
       </c>
       <c r="C2">
+        <f>General!B24</f>
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
+      <c r="A3" t="str">
+        <f>General!D1</f>
+        <v>Manage Calendars</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <f>General!D23</f>
+        <v>80.64</v>
       </c>
       <c r="C3">
+        <f>General!D24</f>
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
+      <c r="A4" t="str">
+        <f>General!F1</f>
+        <v>Logout</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <f>General!F23</f>
+        <v>18.239999999999998</v>
       </c>
       <c r="C4">
+        <f>General!F24</f>
         <v>9</v>
       </c>
     </row>

--- a/Word Dateien/Function Points.xlsx
+++ b/Word Dateien/Function Points.xlsx
@@ -4,21 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="5" r:id="rId2"/>
-    <sheet name="Manage Calendars" sheetId="7" r:id="rId3"/>
-    <sheet name="Logout" sheetId="6" r:id="rId4"/>
-    <sheet name="Diagram" sheetId="8" r:id="rId5"/>
+    <sheet name="Logout" sheetId="6" r:id="rId3"/>
+    <sheet name="Manage Calendars" sheetId="7" r:id="rId4"/>
+    <sheet name="Manage Mail Accounts" sheetId="13" r:id="rId5"/>
+    <sheet name="Manage Rights" sheetId="14" r:id="rId6"/>
+    <sheet name="Manage Address Book" sheetId="12" r:id="rId7"/>
+    <sheet name="Manage Appointments" sheetId="15" r:id="rId8"/>
+    <sheet name="Book Meeting Rooms" sheetId="16" r:id="rId9"/>
+    <sheet name="Diagram" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="34">
   <si>
     <t>Number of User Input</t>
   </si>
@@ -103,6 +108,24 @@
   <si>
     <t>Time Spent</t>
   </si>
+  <si>
+    <t>Manage Mail Accounts</t>
+  </si>
+  <si>
+    <t>Manage Rights</t>
+  </si>
+  <si>
+    <t>Manage Address Book</t>
+  </si>
+  <si>
+    <t>Manage Appointments</t>
+  </si>
+  <si>
+    <t>Book Meeting Rooms</t>
+  </si>
+  <si>
+    <t>estimated: 18</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,128 +460,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,17 +698,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diagram!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time Spent (h)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -628,36 +724,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Diagram!$B$2:$B$4</c:f>
+              <c:f>Diagram!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>24.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>80.64</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.239999999999998</c:v>
+                <c:pt idx="3">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Diagram!$C$2:$C$4</c:f>
+              <c:f>Diagram!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,11 +792,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189966208"/>
-        <c:axId val="189984768"/>
+        <c:axId val="122306560"/>
+        <c:axId val="122308480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189966208"/>
+        <c:axId val="122306560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,12 +825,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189984768"/>
+        <c:crossAx val="122308480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189984768"/>
+        <c:axId val="122308480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +864,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189966208"/>
+        <c:crossAx val="122306560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -765,21 +885,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1083,524 +1205,1074 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30">
-        <v>2</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="49">
-        <v>5</v>
-      </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="30">
-        <v>1</v>
-      </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" s="23">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="21">
+        <v>13</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="21">
+        <v>5</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="21">
+        <v>10</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="21">
+        <v>6</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50">
-        <v>5</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="32">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="26">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="24">
+        <v>3</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="24">
+        <v>5</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="24">
+        <v>5</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="24">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32">
-        <v>0</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26">
         <v>3</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="G5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="H5" s="24">
+        <v>5</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="24">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="24">
+        <v>5</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="50">
-        <v>5</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="32">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="26">
+        <v>5</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="24">
+        <v>3</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="24">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="24">
+        <v>5</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="51">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51" t="s">
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="34">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="48">
         <v>4</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="16">
-        <f>B9</f>
+      <c r="C9" s="49"/>
+      <c r="D9" s="42">
+        <f t="shared" ref="D9" si="0">$B9</f>
         <v>4</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16">
-        <f>D9</f>
+      <c r="E9" s="46"/>
+      <c r="F9" s="42">
+        <f>$B9</f>
         <v>4</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="46"/>
+      <c r="H9" s="42">
+        <f t="shared" ref="H9" si="1">$B9</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9" si="2">$B9</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="42">
+        <f t="shared" ref="L9:P9" si="3">$B9</f>
+        <v>4</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="43"/>
+      <c r="P9" s="42">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="43"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="50">
         <v>3</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="18">
-        <f t="shared" ref="D10:D22" si="0">B10</f>
+      <c r="C10" s="51"/>
+      <c r="D10" s="30">
+        <f t="shared" ref="D10:P22" si="4">$B10</f>
         <v>3</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18">
-        <f t="shared" ref="F10:F22" si="1">D10</f>
+      <c r="E10" s="44"/>
+      <c r="F10" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="44"/>
+      <c r="H10" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="38">
-        <v>0</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="50">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="38">
-        <v>1</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="50">
+        <v>1</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="31"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="38">
-        <v>0</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="50">
+        <v>0</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="38">
-        <v>5</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="50">
+        <v>5</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="38">
-        <v>5</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="50">
+        <v>5</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="31"/>
+      <c r="P15" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="31"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38">
-        <v>1</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="50">
+        <v>1</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="50">
         <v>3</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="18">
-        <f t="shared" si="0"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18">
-        <f t="shared" si="1"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="44"/>
+      <c r="H17" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="31"/>
+      <c r="P17" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="38">
-        <v>2</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="50">
+        <v>2</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="31"/>
+      <c r="P18" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="38">
-        <v>5</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50">
+        <v>5</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K19" s="44"/>
+      <c r="L19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O19" s="31"/>
+      <c r="P19" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="38">
-        <v>0</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="50">
+        <v>0</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="31"/>
+      <c r="P20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="31"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="38">
-        <v>2</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="50">
+        <v>2</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="44"/>
+      <c r="J21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O21" s="31"/>
+      <c r="P21" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="40">
-        <v>0</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="52">
+        <v>0</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="45"/>
+      <c r="J22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="45"/>
+      <c r="L22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="34">
         <v>24.96</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42">
+      <c r="C23" s="54"/>
+      <c r="D23" s="34">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34">
         <v>80.64</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="42">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="34">
+        <v>60.4</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="34">
+        <v>31.85</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34">
+        <v>72</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="34">
+        <v>60.45</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="34">
+        <v>48.75</v>
+      </c>
+      <c r="Q23" s="35"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="36">
         <v>13</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="46">
+      <c r="C24" s="56"/>
+      <c r="D24" s="36">
+        <v>9</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36">
         <v>29</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="46">
-        <v>9</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="36">
+        <v>23</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="36">
+        <v>16</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="36">
+        <v>23</v>
+      </c>
+      <c r="M24" s="37"/>
+      <c r="N24" s="36">
+        <v>27</v>
+      </c>
+      <c r="O24" s="37"/>
+      <c r="P24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="152">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1612,16 +2284,257 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>General!B1</f>
+        <v>Login</v>
+      </c>
+      <c r="B2">
+        <f>General!B23</f>
+        <v>24.96</v>
+      </c>
+      <c r="C2">
+        <f>General!B24</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>General!D1</f>
+        <v>Logout</v>
+      </c>
+      <c r="B3">
+        <f>General!D23</f>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C3">
+        <f>General!D24</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>General!F1</f>
+        <v>Manage Calendars</v>
+      </c>
+      <c r="B4">
+        <f>General!F23</f>
+        <v>80.64</v>
+      </c>
+      <c r="C4">
+        <f>General!F24</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>General!H1</f>
+        <v>Manage Mail Accounts</v>
+      </c>
+      <c r="B5">
+        <f>General!H23</f>
+        <v>60.4</v>
+      </c>
+      <c r="C5">
+        <f>General!H24</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>General!J1</f>
+        <v>Manage Rights</v>
+      </c>
+      <c r="B6">
+        <f>General!J23</f>
+        <v>31.85</v>
+      </c>
+      <c r="C6">
+        <f>General!J24</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>General!L1</f>
+        <v>Manage Address Book</v>
+      </c>
+      <c r="B7">
+        <f>General!L23</f>
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <f>General!L24</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>General!N1</f>
+        <v>Manage Appointments</v>
+      </c>
+      <c r="B8">
+        <f>General!N23</f>
+        <v>60.45</v>
+      </c>
+      <c r="C8">
+        <f>General!N24</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1629,28 +2542,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="57" t="str">
         <f>General!B1</f>
         <v>Login</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,179 +2643,180 @@
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="42">
         <f>General!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="30">
         <f>General!B10</f>
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="30">
         <f>General!B11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="30">
         <f>General!B12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="30">
         <f>General!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <f>General!B14</f>
         <v>5</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="30">
         <f>General!B15</f>
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <f>General!B16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="30">
         <f>General!B17</f>
         <v>3</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="30">
         <f>General!B18</f>
         <v>2</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="30">
         <f>General!B19</f>
         <v>5</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="30">
         <f>General!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="30">
         <f>General!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="32">
         <f>General!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="59">
         <f>General!B23</f>
         <v>24.96</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1927,84 +2844,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="57" t="str">
         <f>General!D1</f>
-        <v>Manage Calendars</v>
-      </c>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>Logout</v>
+      </c>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f>General!D3</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11" t="str">
         <f>General!E3</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <f>General!D4</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="12" t="str">
         <f>General!E4</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <f>General!D5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12" t="str">
         <f>General!E5</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <f>General!D6</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="12" t="str">
         <f>General!E6</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2017,164 +2936,183 @@
         <v>Simple</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="42">
         <f>General!D9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="43"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="30">
         <f>General!D10</f>
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="31"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="30">
         <f>General!D11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="31"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="30">
         <f>General!D12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="30">
         <f>General!D13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="31"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <f>General!D14</f>
         <v>5</v>
       </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="31"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="30">
         <f>General!D15</f>
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="31"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <f>General!D16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="31"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="30">
         <f>General!D17</f>
         <v>3</v>
       </c>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="30">
         <f>General!D18</f>
         <v>2</v>
       </c>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="31"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="30">
         <f>General!D19</f>
         <v>5</v>
       </c>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="31"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="30">
         <f>General!D20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="31"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="30">
         <f>General!D21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="26"/>
-    </row>
-    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="32">
         <f>General!D22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="33"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="59">
         <f>General!D23</f>
-        <v>80.64</v>
-      </c>
-      <c r="C23" s="28"/>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -2202,83 +3140,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="57" t="str">
         <f>General!F1</f>
-        <v>Logout</v>
-      </c>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>Manage Calendars</v>
+      </c>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f>General!F3</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="11" t="str">
         <f>General!G3</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <f>General!F4</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12" t="str">
         <f>General!G4</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <f>General!F5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12" t="str">
         <f>General!G5</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <f>General!F6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="12" t="str">
         <f>General!G6</f>
         <v>Simple</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2291,182 +3233,165 @@
         <v>Simple</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="42">
         <f>General!F9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="30">
         <f>General!F10</f>
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="30">
         <f>General!F11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="30">
         <f>General!F12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="30">
         <f>General!F13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <f>General!F14</f>
         <v>5</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="30">
         <f>General!F15</f>
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <f>General!F16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="30">
         <f>General!F17</f>
         <v>3</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="30">
         <f>General!F18</f>
         <v>2</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="30">
         <f>General!F19</f>
         <v>5</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="30">
         <f>General!F20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="30">
         <f>General!F21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="32">
         <f>General!F22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="59">
         <f>General!F23</f>
-        <v>18.239999999999998</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
+        <v>80.64</v>
+      </c>
+      <c r="C23" s="60"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -2494,69 +3419,1460 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="67" t="str">
+        <f>General!H1</f>
+        <v>Manage Mail Accounts</v>
+      </c>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <f>General!H3</f>
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>General!I3</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <f>General!H4</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>General!I4</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <f>General!H5</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>General!I5</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <f>General!H6</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>General!I6</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <f>General!H7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>General!I7</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71">
+        <f>General!H9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61">
+        <f>General!H10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="61">
+        <f>General!H11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61">
+        <f>General!H12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61">
+        <f>General!H13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61">
+        <f>General!H14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="61">
+        <f>General!H15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61">
+        <f>General!H16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61">
+        <f>General!H17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61">
+        <f>General!H18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61">
+        <f>General!H19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61">
+        <f>General!H20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="61">
+        <f>General!H21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="63">
+        <f>General!H22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>General!B1</f>
-        <v>Login</v>
-      </c>
-      <c r="B2">
-        <f>General!B23</f>
-        <v>24.96</v>
-      </c>
-      <c r="C2">
-        <f>General!B24</f>
+      <c r="B23" s="65">
+        <f>General!H23</f>
+        <v>60.4</v>
+      </c>
+      <c r="C23" s="66"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="67" t="str">
+        <f>General!J1</f>
+        <v>Manage Rights</v>
+      </c>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <f>General!J3</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>General!K3</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <f>General!J4</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>General!K4</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <f>General!J5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>General!K5</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <f>General!J6</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>General!K6</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <f>General!J7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>General!K7</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71">
+        <f>General!J9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61">
+        <f>General!J10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="61">
+        <f>General!J11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61">
+        <f>General!J12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61">
+        <f>General!J13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61">
+        <f>General!J14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>General!D1</f>
-        <v>Manage Calendars</v>
-      </c>
-      <c r="B3">
-        <f>General!D23</f>
-        <v>80.64</v>
-      </c>
-      <c r="C3">
-        <f>General!D24</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>General!F1</f>
-        <v>Logout</v>
-      </c>
-      <c r="B4">
-        <f>General!F23</f>
-        <v>18.239999999999998</v>
-      </c>
-      <c r="C4">
-        <f>General!F24</f>
+      <c r="B15" s="61">
+        <f>General!J15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61">
+        <f>General!J16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61">
+        <f>General!J17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61">
+        <f>General!J18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61">
+        <f>General!J19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61">
+        <f>General!J20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="61">
+        <f>General!J21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="63">
+        <f>General!J22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="65">
+        <f>General!J23</f>
+        <v>31.85</v>
+      </c>
+      <c r="C23" s="66"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="67" t="str">
+        <f>General!L1</f>
+        <v>Manage Address Book</v>
+      </c>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <f>General!L3</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>General!M3</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <f>General!L4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>General!M4</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <f>General!L5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>General!M5</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <f>General!L6</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>General!M6</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <f>General!L7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>General!M7</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71">
+        <f>General!L9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61">
+        <f>General!L10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="61">
+        <f>General!L11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61">
+        <f>General!L12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61">
+        <f>General!L13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61">
+        <f>General!L14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="61">
+        <f>General!L15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61">
+        <f>General!L16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61">
+        <f>General!L17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61">
+        <f>General!L18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61">
+        <f>General!L19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61">
+        <f>General!L20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="61">
+        <f>General!L21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="63">
+        <f>General!L22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="65">
+        <f>General!L23</f>
+        <v>72</v>
+      </c>
+      <c r="C23" s="66"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="67" t="str">
+        <f>General!N1</f>
+        <v>Manage Appointments</v>
+      </c>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <f>General!N3</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>General!O3</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <f>General!N4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>General!O4</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <f>General!N5</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>General!O5</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <f>General!N6</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>General!O6</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <f>General!N7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>General!O7</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71">
+        <f>General!N9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61">
+        <f>General!N10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="61">
+        <f>General!N11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61">
+        <f>General!N12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61">
+        <f>General!N13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61">
+        <f>General!N14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="61">
+        <f>General!N15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61">
+        <f>General!N16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61">
+        <f>General!N17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61">
+        <f>General!N18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61">
+        <f>General!N19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61">
+        <f>General!N20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="61">
+        <f>General!N21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="63">
+        <f>General!N22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="65">
+        <f>General!N23</f>
+        <v>60.45</v>
+      </c>
+      <c r="C23" s="66"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="67" t="str">
+        <f>General!P1</f>
+        <v>Book Meeting Rooms</v>
+      </c>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <f>General!P3</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>General!Q3</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <f>General!P4</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>General!Q4</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <f>General!P5</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>General!Q5</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <f>General!P6</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>General!Q6</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <f>General!P7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>General!Q7</f>
+        <v>Simple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71">
+        <f>General!P9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61">
+        <f>General!P10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="61">
+        <f>General!P11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61">
+        <f>General!P12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61">
+        <f>General!P13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61">
+        <f>General!P14</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="61">
+        <f>General!P15</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61">
+        <f>General!P16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61">
+        <f>General!P17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61">
+        <f>General!P18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61">
+        <f>General!P19</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61">
+        <f>General!P20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="61">
+        <f>General!P21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="63">
+        <f>General!P22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="65">
+        <f>General!P23</f>
+        <v>48.75</v>
+      </c>
+      <c r="C23" s="66"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>